--- a/pie.xlsx
+++ b/pie.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="1999" sheetId="1" r:id="rId1"/>
+    <sheet name="2003" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>url</t>
   </si>
@@ -40,40 +40,79 @@
     <t>year</t>
   </si>
   <si>
-    <t>http://saflii.org/za/cases/ZAWCHC/1999/1.html</t>
-  </si>
-  <si>
-    <t>http://saflii.org/za/cases/ZAWCHC/1999/2.html</t>
-  </si>
-  <si>
-    <t>Grootboom and Others v Oostenberg Municipality and Others (6826/99) [1999] ZAWCHC 1 (17 December 1999)</t>
-  </si>
-  <si>
-    <t>Ross v South Peninsula Municipality (A741/98) [1999] ZAWCHC 2; [2000] 4 All SA 85 (C) (3 September 1999)</t>
-  </si>
-  <si>
-    <t>17 December 1999</t>
-  </si>
-  <si>
-    <t>3 September 1999</t>
-  </si>
-  <si>
-    <t>6826/99</t>
-  </si>
-  <si>
-    <t>A741/98</t>
+    <t>http://saflii.org/za/cases/ZAWCHC/2003/48.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2003/26.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2003/71.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2003/15.html</t>
+  </si>
+  <si>
+    <t>Absa Bank bpk v Murray and Another (8946/02) [2003] ZAWCHC 48 (18 September 2003)</t>
+  </si>
+  <si>
+    <t>Jaftha v Schoeman and Others (8617/01) [2003] ZAWCHC 26; [2003] 3 All SA 690 (C) (25 June 2003)</t>
+  </si>
+  <si>
+    <t>Nduna v Absa Bank Ltd and Others (4596/03) [2003] ZAWCHC 71; [2004] 3 All SA 364 (C) (12 December 2003)</t>
+  </si>
+  <si>
+    <t>City of Cape Town v Persons who are presently unlawfully occupying erf 1800, Capricorn: Vrygrond Development and Another (9617/2002) [2003] ZAWCHC 15; [2003] 3 All SA 371 (C) [2004] 2 All SA 438 (C) (20 May 2003)</t>
+  </si>
+  <si>
+    <t>18 September 2003</t>
+  </si>
+  <si>
+    <t>25 June 2003</t>
+  </si>
+  <si>
+    <t>12 December 2003</t>
+  </si>
+  <si>
+    <t>20 May 2003</t>
+  </si>
+  <si>
+    <t>8946/02</t>
+  </si>
+  <si>
+    <t>8617/01</t>
+  </si>
+  <si>
+    <t>4596/03</t>
+  </si>
+  <si>
+    <t>9617/2002</t>
+  </si>
+  <si>
+    <t>3523</t>
+  </si>
+  <si>
+    <t>1825</t>
   </si>
   <si>
     <t>not find ERF number</t>
   </si>
   <si>
+    <t>1800</t>
+  </si>
+  <si>
     <t>not find heard date</t>
   </si>
   <si>
     <t>not find address</t>
   </si>
   <si>
-    <t>1999</t>
+    <t>zodiac street</t>
+  </si>
+  <si>
+    <t>adjoining road</t>
+  </si>
+  <si>
+    <t>2003</t>
   </si>
 </sst>
 </file>
@@ -444,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,25 +520,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -507,31 +546,85 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="C5" t="s">
         <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pie.xlsx
+++ b/pie.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2003" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="437">
   <si>
     <t>url</t>
   </si>
@@ -40,6 +40,12 @@
     <t>year</t>
   </si>
   <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/1999/1.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/1999/2.html</t>
+  </si>
+  <si>
     <t>http://saflii.org/za/cases/ZAWCHC/2003/48.html</t>
   </si>
   <si>
@@ -52,6 +58,237 @@
     <t>http://saflii.org/za/cases/ZAWCHC/2003/15.html</t>
   </si>
   <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2004/5.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2004/51.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2005/16.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2006/50.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2006/70.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2006/62.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2007/20.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2008/14.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2008/15.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2008/43.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2008/305.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2009/228.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2009/189.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2010/41.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2010/128.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2010/91.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2010/176.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2010/365.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2010/46.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2011/19.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2011/331.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2011/238.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2011/305.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2011/450.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2011/330.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2011/391.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2011/416.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2011/390.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2011/528.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2011/415.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2011/90.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2011/340.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2012/350.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2012/180.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2012/390.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2012/168.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2012/249.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2012/156.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2012/395.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2012/285.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2013/26.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2013/12.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2013/127.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2013/214.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2014/120.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2014/138.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2014/28.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2014/193.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2014/32.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2014/60.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2015/97.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2015/202.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2015/58.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2016/133.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2016/168.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2016/33.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2016/167.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2016/68.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2017/116.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2017/126.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2017/73.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2017/117.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2017/80.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2017/14.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2017/24.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2017/142.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2018/158.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2018/137.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2018/126.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2018/169.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2018/40.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2018/138.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2018/143.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2018/185.html</t>
+  </si>
+  <si>
+    <t>http://saflii.org/za/cases/ZAWCHC/2018/167.html</t>
+  </si>
+  <si>
+    <t>Grootboom and Others v Oostenberg Municipality and Others (6826/99) [1999] ZAWCHC 1 (17 December 1999)</t>
+  </si>
+  <si>
+    <t>Ross v South Peninsula Municipality (A741/98) [1999] ZAWCHC 2; [2000] 4 All SA 85 (C) (3 September 1999)</t>
+  </si>
+  <si>
     <t>Absa Bank bpk v Murray and Another (8946/02) [2003] ZAWCHC 48 (18 September 2003)</t>
   </si>
   <si>
@@ -64,6 +301,237 @@
     <t>City of Cape Town v Persons who are presently unlawfully occupying erf 1800, Capricorn: Vrygrond Development and Another (9617/2002) [2003] ZAWCHC 15; [2003] 3 All SA 371 (C) [2004] 2 All SA 438 (C) (20 May 2003)</t>
   </si>
   <si>
+    <t>City of Cape Town v Yawa and Others (395/04) [2004] ZAWCHC 5; [2004] 2 All SA 281 (C) (29 January 2004)</t>
+  </si>
+  <si>
+    <t>City of Cape Town v Yawa and Others (395/04) [2004] ZAWCHC 51 (29 January 2004)</t>
+  </si>
+  <si>
+    <t>Davids and Others v Van Straaten and Others (901/05) [2005] ZAWCHC 16; 2005 (4) SA 468 (C) (17 March 2005)</t>
+  </si>
+  <si>
+    <t>Laskey and Another v Showzone CC and Others (5988/06) [2006] ZAWCHC 50; [2007] 4 All SA 1162 (C); 2007 (2) SA 48 (C) (30 October 2006)</t>
+  </si>
+  <si>
+    <t>Ploughmann NO v Pauw and Another (1727/2003) [2006] ZAWCHC 70 (4 August 2006)</t>
+  </si>
+  <si>
+    <t>Kroneberg v Kroneberg (A325/06) [2006] ZAWCHC 62 (22 December 2006)</t>
+  </si>
+  <si>
+    <t>Simonsig Landgoed (Edms) Bpk v Vers and Others (A141/06 , A142/06 , A143/06) [2007] ZAWCHC 20; [2007] 4 All SA 1288 (C); 2007 (5) SA 103 (C) (9 May 2007)</t>
+  </si>
+  <si>
+    <t>Thubelisha Homes and Others v Various Occupants and Others (13189/07) [2008] ZAWCHC 14 (10 March 2008)</t>
+  </si>
+  <si>
+    <t>Minister of Local Government and Housing for the Western Cape and Others v Various Unlawful Occupiers of Houses Situated in Precincts 4 and 6, Delft Symphony and Others (102/08) [2008] ZAWCHC 15 (6 February 2008)</t>
+  </si>
+  <si>
+    <t>Theart and Another v Minnaar NO (A99/2008) [2008] ZAWCHC 43; 2009 (3) SA 503 (C) (7 August 2008)</t>
+  </si>
+  <si>
+    <t>Soundprops (236) (Pty) Ltd v Lewis and Another (14889/2008) [2008] ZAWCHC 305 (24 November 2008)</t>
+  </si>
+  <si>
+    <t>Drakenstein Municipality v Hendricks and Others (A254/2009) [2009] ZAWCHC 228 (15 December 2009)</t>
+  </si>
+  <si>
+    <t>Hendricks NO and Others v Cape Kingdom (Pty) Ltd (14432/08) [2009] ZAWCHC 189; 2010 (5) SA 274 (WCC) (7 December 2009)</t>
+  </si>
+  <si>
+    <t>City of Cape Town v Maart &amp; Others (8667/2006) [2010] ZAWCHC 41 (16 March 2010)</t>
+  </si>
+  <si>
+    <t>Malo and Another v Siswana and Another (A137/2008) [2010] ZAWCHC 128 (11 June 2010)</t>
+  </si>
+  <si>
+    <t>Omar NO v Omar and Others (9643/07) [2010] ZAWCHC 91 (11 May 2010)</t>
+  </si>
+  <si>
+    <t>Ark City of Refuge v Bailing and Others (8969/2007) [2010] ZAWCHC 176; 2011 (1) BCLR 68 (WCC) ; [2011] 2 All SA 195 (WCC) (15 September 2010)</t>
+  </si>
+  <si>
+    <t>Gundwna v Steko Development CC (A379/2008) [2010] ZAWCHC 365 (27 February 2010)</t>
+  </si>
+  <si>
+    <t>Steenkamp and Another v Camphill Farm Community (2319/10) [2010] ZAWCHC 46 (18 March 2010)</t>
+  </si>
+  <si>
+    <t>Hendricks and Another v Stoutz (461/09) [2011] ZAWCHC 19 (15 February 2011)</t>
+  </si>
+  <si>
+    <t>Summers and Another v Kiewitz and Another (14722/10) [2011] ZAWCHC 331 (1 September 2011)</t>
+  </si>
+  <si>
+    <t>Crimson Sunset Property Bantry Bay (Pty) Ltd v City of Cape TOwn (12850/10) [2011] ZAWCHC 238 (26 May 2011)</t>
+  </si>
+  <si>
+    <t>Nederburg Wine Farms v Bester and Others (A777/2010) [2011] ZAWCHC 305 (10 August 2011)</t>
+  </si>
+  <si>
+    <t>City of Cape Town v Blankenberg and Others (24710/2010) [2011] ZAWCHC 450 (9 December 2011)</t>
+  </si>
+  <si>
+    <t>Standard Bank of South Africa Ltd v Bekker and Another (6628/2011, 6635/2011, 6644/2011, 7032/2011, 7047/2011) [2011] ZAWCHC 330; 2011 (6) SA 111 (WCC) (25 August 2011)</t>
+  </si>
+  <si>
+    <t>City of Cape Town v Hoosain NO and Others (10334/2011) [2011] ZAWCHC 391 (20 October 2011)</t>
+  </si>
+  <si>
+    <t>Yussuf and Another v Ye Khan Investments CC and Another (1355/2011) [2011] ZAWCHC 416 (1 November 2011)</t>
+  </si>
+  <si>
+    <t>Ives v Rajah (A205/2011) [2011] ZAWCHC 390; 2012 (2) SA 167 (WCC) (23 September 2011)</t>
+  </si>
+  <si>
+    <t>Meyer NO v Sifile (A355/11) [2011] ZAWCHC 528 (24 November 2011)</t>
+  </si>
+  <si>
+    <t>Omar NO v Omar and Others (9643/2007) [2011] ZAWCHC 415 (1 November 2011)</t>
+  </si>
+  <si>
+    <t>Annenprop 5 (Pty) Ltd v Respondents listed on Annexure "A" and Others (13782/09) [2011] ZAWCHC 90 (14 April 2011)</t>
+  </si>
+  <si>
+    <t>City of Cape Town v Daniels and Others (5090/2011) [2011] ZAWCHC 340 (25 August 2011)</t>
+  </si>
+  <si>
+    <t>Dinginto and Another v Bloemberg (13008/2012) [2012] ZAWCHC 350 (9 November 2012)</t>
+  </si>
+  <si>
+    <t>City of Cape Town v Hoosain NO and Others (10334/2011) [2012] ZAWCHC 180 (24 October 2012)</t>
+  </si>
+  <si>
+    <t>Breede Vallei Munisipaliteit v Die Inwoners van ERF 18184 and Others (A369/12) [2012] ZAWCHC 390 (13 December 2012)</t>
+  </si>
+  <si>
+    <t>ABSA Bank Ltd v Petersen (934/2011) [2012] ZAWCHC 168; [2012] 4 All SA 642 (WCC); 2013 (1) SA 481 (WCC) (20 September 2012)</t>
+  </si>
+  <si>
+    <t>Coetzee v Communicare and Others (21243/2011) [2012] ZAWCHC 249 (13 December 2012)</t>
+  </si>
+  <si>
+    <t>Arendse v Arendse and Others (12659/2009) [2012] ZAWCHC 156; [2012] 4 All SA 305 (WCC); 2013 (3) SA 347 (WCC) (20 August 2012)</t>
+  </si>
+  <si>
+    <t>Resnick v Government of the Republic of South Africa and Another (A536/2011) [2012] ZAWCHC 395; 2014 (2) SA 337 (WCC) (12 October 2012)</t>
+  </si>
+  <si>
+    <t>The Art City of Refugee v Bailing and Others (A107/2011) [2012] ZAWCHC 285 (10 August 2012)</t>
+  </si>
+  <si>
+    <t>Adams v Communicare (1853/2013) [2013] ZAWCHC 26 (19 February 2013)</t>
+  </si>
+  <si>
+    <t>October NO and Another v Hendricks and Another (23189/2011) [2013] ZAWCHC 12; 2016 (2) SA 600 (WCC) (31 January 2013)</t>
+  </si>
+  <si>
+    <t>Snyman v Honourable Magistrate: Folscher and Others (6919/2012) [2013] ZAWCHC 127 (6 September 2013)</t>
+  </si>
+  <si>
+    <t>Katshwa and Others v Cape Town Community Housing Company (Pty) Ltd; Peter and Others v Cape Town Community Housing Company (Pty) Ltd; Mgugusha and Others v Cape Town Community Housing Company (Pty) Ltd; Johannes and Others v Cape Town Community Housing Company (Pty) Ltd Nginda and Others v Cape Town Community Housing Company (Pty) Ltd (A264-2012; A263-2012; A261-2012; A262-2912; A265-2012) [2013] ZAWCHC 214 (3 September 2013)</t>
+  </si>
+  <si>
+    <t>Steyn v Hasse and Another (A93/2013) [2014] ZAWCHC 120; 2015 (4) SA 405 (WCC) (15 August 2014)</t>
+  </si>
+  <si>
+    <t>Wijnen and Another v Mohamed and Others (16043/13) [2014] ZAWCHC 138 (1 September 2014)</t>
+  </si>
+  <si>
+    <t>J &amp; F Le Roux Properties CC and Another v Manisi and Others (17328/13) [2014] ZAWCHC 28 (4 March 2014)</t>
+  </si>
+  <si>
+    <t>Applethwaite Farm (Pty) Ltd v Tshongweni and Another (12299/2014) [2014] ZAWCHC 193 (12 December 2014)</t>
+  </si>
+  <si>
+    <t>Fischer and Another v Persons whose identities are to the apllicants unkown and who have attempted or are threatening to unlawfully occupy Erf 150 (Remaining extent) Philippi In re: Ramahlele and Others v Fisher and Another (297/2014) [2014] ZAWCHC 32; 2014 (3) SA 291 (WCC); 2014 (7) BCLR 838 (WCC); [2014] 3 All SA 365 (WCC) (13 March 2014)</t>
+  </si>
+  <si>
+    <t>Mitchell v Mathews and Others (2522/2014) [2014] ZAWCHC 60; 2015 (4) SA 351 (WCC) (23 April 2014)</t>
+  </si>
+  <si>
+    <t>Denel Soc Limited v Persons whose Identities are to the applicants unkown and who have attempted or are threatening to unlawfully occupy ERF 52676, Khayelitsha; In re: Jack and Others v Denel Soc Limited and Others; In re: Denel Soc Limited v Unlawful Occupiers of ERF 52676, Khayelitsha and Another (6084/15, 6143/15) [2015] ZAWCHC 97 (24 June 2015)</t>
+  </si>
+  <si>
+    <t>City of Cape Town v Those Persons Occupying and/or intending or attempting to occupy or erect structures on erf Khayelitsha (13700/14) [2015] ZAWCHC 202 (14 December 2015)</t>
+  </si>
+  <si>
+    <t>City of Cape Town v Independent Municipal And Allied Workers Union and Others (A295/2014) [2015] ZAWCHC 58 (17 September 2015)</t>
+  </si>
+  <si>
+    <t>Odvest 182 Pty (Ltd) v Occupiers of Portion 26 (Portion of Portion 3) of Farm Klein Bottelary No 17, Botfontein Road ('The Property') and Others (19695/2012) [2016] ZAWCHC 133 (14 October 2016)</t>
+  </si>
+  <si>
+    <t>Hardisty and Another v Noor and Others (6885/16) [2016] ZAWCHC 168 (24 October 2016)</t>
+  </si>
+  <si>
+    <t>Samuels v S (A558/13, 9/1227/13) [2016] ZAWCHC 33; 2016 (2) SACR 298 (WCC) (31 March 2016)</t>
+  </si>
+  <si>
+    <t>Claasen and Others v MEC for Transport and Public Works, Western Cape Provincial Department and Another (23595/2015) [2016] ZAWCHC 167 (11 November 2016)</t>
+  </si>
+  <si>
+    <t>Du Plessis v S (A01/16, A959/14) [2016] ZAWCHC 68 (8 June 2016)</t>
+  </si>
+  <si>
+    <t>Isaacs and Others v City of Cape Town and Another (4375/2017) [2017] ZAWCHC 116; [2018] 1 All SA 135 (WCC) (22 September 2017)</t>
+  </si>
+  <si>
+    <t>Stroebel v Witzenburg Municipality (A176/17) [2017] ZAWCHC 126 (2 November 2017)</t>
+  </si>
+  <si>
+    <t>Polizzi and Another v Standard Bank of South Africa Limited and Others (12598/2009) [2017] ZAWCHC 73 (30 May 2017)</t>
+  </si>
+  <si>
+    <t>Lusithi and Others v Cape Lifestyle Investment Ltd and Another (A511/15) [2017] ZAWCHC 117; [2018] 1 All SA 166 (WCC); 2018 (6) BCLR 727 (WCC) (13 October 2017)</t>
+  </si>
+  <si>
+    <t>GPC Developments CC and Others v Uys (A71/2017) [2017] ZAWCHC 80; [2017] 4 All SA 14 (WCC) (15 August 2017)</t>
+  </si>
+  <si>
+    <t>Amardien and Others v Registrar of Deeds and Others (5283/2016) [2017] ZAWCHC 14; [2017] 2 All SA 431 (WCC) (23 February 2017)</t>
+  </si>
+  <si>
+    <t>Jacobs v Communicare and Another (A389/2016) [2017] ZAWCHC 24; 2017 (4) SA 412 (WCC) (14 March 2017)</t>
+  </si>
+  <si>
+    <t>Makah v Magic Vending (Pty) Ltd; Ngolo v Magic Vending (Pty) Ltd (A325/2016; A326/2016) [2017] ZAWCHC 142; 2018 (3) SA 241 (WCC) (16 May 2017)</t>
+  </si>
+  <si>
+    <t>Jeremiah v Communicare, a non-profit company and Another (A55/2018) [2018] ZAWCHC 158 (21 August 2018)</t>
+  </si>
+  <si>
+    <t>Pure Capital Property Trading CC v Hanslo and Others (15217/2018) [2018] ZAWCHC 137 (31 October 2018)</t>
+  </si>
+  <si>
+    <t>All Those Persons Mentioned in Annexure "X" v Welbeloond (Pty) Ltd and Others (16420/2018) [2018] ZAWCHC 126 (26 September 2018)</t>
+  </si>
+  <si>
+    <t>Luanga v Perthpark Properties Ltd (A99/2018) [2018] ZAWCHC 169; 2019 (3) SA 214 (WCC) (20 September 2018)</t>
+  </si>
+  <si>
+    <t>Transcend Residential Property Fund Limited v Mati and Others (14639/2017) [2018] ZAWCHC 40; 2018 (4) SA 515 (WCC) (20 March 2018)</t>
+  </si>
+  <si>
+    <t>Afrikaanse Christelike Vroue Vereniging van Robertson and Another v Folscher and Another (23256/17) [2018] ZAWCHC 138 (29 October 2018)</t>
+  </si>
+  <si>
+    <t>Mayekiso and Others v Patel NO and Others (3860/2016) [2018] ZAWCHC 143; [2019] 1 All SA 221 (WCC); 2019 (2) SA 522 (WCC) (24 October 2018)</t>
+  </si>
+  <si>
+    <t>McNeil and Another v Aspeling and Others (A85/18) [2018] ZAWCHC 185 (28 June 2018)</t>
+  </si>
+  <si>
+    <t>Van der Stel Sports Club v Cape Perfect Health CC t/a Perfect Health (4467/2018) [2018] ZAWCHC 167 (3 December 2018)</t>
+  </si>
+  <si>
+    <t>17 December 1999</t>
+  </si>
+  <si>
+    <t>3 September 1999</t>
+  </si>
+  <si>
     <t>18 September 2003</t>
   </si>
   <si>
@@ -76,6 +544,225 @@
     <t>20 May 2003</t>
   </si>
   <si>
+    <t>29 January 2004</t>
+  </si>
+  <si>
+    <t>17 March 2005</t>
+  </si>
+  <si>
+    <t>30 October 2006</t>
+  </si>
+  <si>
+    <t>4 August 2006</t>
+  </si>
+  <si>
+    <t>22 December 2006</t>
+  </si>
+  <si>
+    <t>9 May 2007</t>
+  </si>
+  <si>
+    <t>10 March 2008</t>
+  </si>
+  <si>
+    <t>6 February 2008</t>
+  </si>
+  <si>
+    <t>7 August 2008</t>
+  </si>
+  <si>
+    <t>24 November 2008</t>
+  </si>
+  <si>
+    <t>15 December 2009</t>
+  </si>
+  <si>
+    <t>7 December 2009</t>
+  </si>
+  <si>
+    <t>16 March 2010</t>
+  </si>
+  <si>
+    <t>11 June 2010</t>
+  </si>
+  <si>
+    <t>11 May 2010</t>
+  </si>
+  <si>
+    <t>15 September 2010</t>
+  </si>
+  <si>
+    <t>27 February 2010</t>
+  </si>
+  <si>
+    <t>18 March 2010</t>
+  </si>
+  <si>
+    <t>15 February 2011</t>
+  </si>
+  <si>
+    <t>1 September 2011</t>
+  </si>
+  <si>
+    <t>26 May 2011</t>
+  </si>
+  <si>
+    <t>10 August 2011</t>
+  </si>
+  <si>
+    <t>9 December 2011</t>
+  </si>
+  <si>
+    <t>25 August 2011</t>
+  </si>
+  <si>
+    <t>20 October 2011</t>
+  </si>
+  <si>
+    <t>1 November 2011</t>
+  </si>
+  <si>
+    <t>23 September 2011</t>
+  </si>
+  <si>
+    <t>24 November 2011</t>
+  </si>
+  <si>
+    <t>14 April 2011</t>
+  </si>
+  <si>
+    <t>9 November 2012</t>
+  </si>
+  <si>
+    <t>24 October 2012</t>
+  </si>
+  <si>
+    <t>13 December 2012</t>
+  </si>
+  <si>
+    <t>20 September 2012</t>
+  </si>
+  <si>
+    <t>20 August 2012</t>
+  </si>
+  <si>
+    <t>12 October 2012</t>
+  </si>
+  <si>
+    <t>10 August 2012</t>
+  </si>
+  <si>
+    <t>19 February 2013</t>
+  </si>
+  <si>
+    <t>31 January 2013</t>
+  </si>
+  <si>
+    <t>6 September 2013</t>
+  </si>
+  <si>
+    <t>3 September 2013</t>
+  </si>
+  <si>
+    <t>15 August 2014</t>
+  </si>
+  <si>
+    <t>1 September 2014</t>
+  </si>
+  <si>
+    <t>4 March 2014</t>
+  </si>
+  <si>
+    <t>12 December 2014</t>
+  </si>
+  <si>
+    <t>13 March 2014</t>
+  </si>
+  <si>
+    <t>23 April 2014</t>
+  </si>
+  <si>
+    <t>24 June 2015</t>
+  </si>
+  <si>
+    <t>14 December 2015</t>
+  </si>
+  <si>
+    <t>17 September 2015</t>
+  </si>
+  <si>
+    <t>14 October 2016</t>
+  </si>
+  <si>
+    <t>24 October 2016</t>
+  </si>
+  <si>
+    <t>31 March 2016</t>
+  </si>
+  <si>
+    <t>11 November 2016</t>
+  </si>
+  <si>
+    <t>8 June 2016</t>
+  </si>
+  <si>
+    <t>22 September 2017</t>
+  </si>
+  <si>
+    <t>2 November 2017</t>
+  </si>
+  <si>
+    <t>30 May 2017</t>
+  </si>
+  <si>
+    <t>13 October 2017</t>
+  </si>
+  <si>
+    <t>15 August 2017</t>
+  </si>
+  <si>
+    <t>23 February 2017</t>
+  </si>
+  <si>
+    <t>14 March 2017</t>
+  </si>
+  <si>
+    <t>16 May 2017</t>
+  </si>
+  <si>
+    <t>21 August 2018</t>
+  </si>
+  <si>
+    <t>31 October 2018</t>
+  </si>
+  <si>
+    <t>26 September 2018</t>
+  </si>
+  <si>
+    <t>20 September 2018</t>
+  </si>
+  <si>
+    <t>20 March 2018</t>
+  </si>
+  <si>
+    <t>29 October 2018</t>
+  </si>
+  <si>
+    <t>24 October 2018</t>
+  </si>
+  <si>
+    <t>28 June 2018</t>
+  </si>
+  <si>
+    <t>3 December 2018</t>
+  </si>
+  <si>
+    <t>6826/99</t>
+  </si>
+  <si>
+    <t>A741/98</t>
+  </si>
+  <si>
     <t>8946/02</t>
   </si>
   <si>
@@ -88,21 +775,354 @@
     <t>9617/2002</t>
   </si>
   <si>
+    <t>395/04</t>
+  </si>
+  <si>
+    <t>901/05</t>
+  </si>
+  <si>
+    <t>5988/06</t>
+  </si>
+  <si>
+    <t>1727/2003</t>
+  </si>
+  <si>
+    <t>A325/06</t>
+  </si>
+  <si>
+    <t>A141/06 , A142/06 , A143/06</t>
+  </si>
+  <si>
+    <t>13189/07</t>
+  </si>
+  <si>
+    <t>102/08</t>
+  </si>
+  <si>
+    <t>A99/2008</t>
+  </si>
+  <si>
+    <t>14889/2008</t>
+  </si>
+  <si>
+    <t>A254/2009</t>
+  </si>
+  <si>
+    <t>14432/08</t>
+  </si>
+  <si>
+    <t>8667/2006</t>
+  </si>
+  <si>
+    <t>A137/2008</t>
+  </si>
+  <si>
+    <t>9643/07</t>
+  </si>
+  <si>
+    <t>8969/2007</t>
+  </si>
+  <si>
+    <t>A379/2008</t>
+  </si>
+  <si>
+    <t>2319/10</t>
+  </si>
+  <si>
+    <t>461/09</t>
+  </si>
+  <si>
+    <t>14722/10</t>
+  </si>
+  <si>
+    <t>12850/10</t>
+  </si>
+  <si>
+    <t>A777/2010</t>
+  </si>
+  <si>
+    <t>24710/2010</t>
+  </si>
+  <si>
+    <t>6628/2011, 6635/2011, 6644/2011, 7032/2011, 7047/2011</t>
+  </si>
+  <si>
+    <t>10334/2011</t>
+  </si>
+  <si>
+    <t>1355/2011</t>
+  </si>
+  <si>
+    <t>A205/2011</t>
+  </si>
+  <si>
+    <t>A355/11</t>
+  </si>
+  <si>
+    <t>9643/2007</t>
+  </si>
+  <si>
+    <t>13782/09</t>
+  </si>
+  <si>
+    <t>5090/2011</t>
+  </si>
+  <si>
+    <t>13008/2012</t>
+  </si>
+  <si>
+    <t>A369/12</t>
+  </si>
+  <si>
+    <t>934/2011</t>
+  </si>
+  <si>
+    <t>21243/2011</t>
+  </si>
+  <si>
+    <t>12659/2009</t>
+  </si>
+  <si>
+    <t>A536/2011</t>
+  </si>
+  <si>
+    <t>A107/2011</t>
+  </si>
+  <si>
+    <t>1853/2013</t>
+  </si>
+  <si>
+    <t>23189/2011</t>
+  </si>
+  <si>
+    <t>6919/2012</t>
+  </si>
+  <si>
+    <t>A264-2012; A263-2012; A261-2012; A262-2912; A265-2012</t>
+  </si>
+  <si>
+    <t>A93/2013</t>
+  </si>
+  <si>
+    <t>16043/13</t>
+  </si>
+  <si>
+    <t>17328/13</t>
+  </si>
+  <si>
+    <t>12299/2014</t>
+  </si>
+  <si>
+    <t>297/2014</t>
+  </si>
+  <si>
+    <t>2522/2014</t>
+  </si>
+  <si>
+    <t>6084/15, 6143/15</t>
+  </si>
+  <si>
+    <t>13700/14</t>
+  </si>
+  <si>
+    <t>A295/2014</t>
+  </si>
+  <si>
+    <t>Portion of Portion 3</t>
+  </si>
+  <si>
+    <t>6885/16</t>
+  </si>
+  <si>
+    <t>A558/13, 9/1227/13</t>
+  </si>
+  <si>
+    <t>23595/2015</t>
+  </si>
+  <si>
+    <t>A01/16, A959/14</t>
+  </si>
+  <si>
+    <t>4375/2017</t>
+  </si>
+  <si>
+    <t>A176/17</t>
+  </si>
+  <si>
+    <t>12598/2009</t>
+  </si>
+  <si>
+    <t>A511/15</t>
+  </si>
+  <si>
+    <t>A71/2017</t>
+  </si>
+  <si>
+    <t>5283/2016</t>
+  </si>
+  <si>
+    <t>A389/2016</t>
+  </si>
+  <si>
+    <t>A325/2016; A326/2016</t>
+  </si>
+  <si>
+    <t>A55/2018</t>
+  </si>
+  <si>
+    <t>15217/2018</t>
+  </si>
+  <si>
+    <t>16420/2018</t>
+  </si>
+  <si>
+    <t>A99/2018</t>
+  </si>
+  <si>
+    <t>14639/2017</t>
+  </si>
+  <si>
+    <t>23256/17</t>
+  </si>
+  <si>
+    <t>3860/2016</t>
+  </si>
+  <si>
+    <t>A85/18</t>
+  </si>
+  <si>
+    <t>4467/2018</t>
+  </si>
+  <si>
+    <t>not find ERF number</t>
+  </si>
+  <si>
     <t>3523</t>
   </si>
   <si>
     <t>1825</t>
   </si>
   <si>
-    <t>not find ERF number</t>
-  </si>
-  <si>
     <t>1800</t>
   </si>
   <si>
+    <t>18332</t>
+  </si>
+  <si>
+    <t>22118</t>
+  </si>
+  <si>
+    <t>5996</t>
+  </si>
+  <si>
+    <t>822</t>
+  </si>
+  <si>
+    <t>113476</t>
+  </si>
+  <si>
+    <t>830</t>
+  </si>
+  <si>
+    <t>9967</t>
+  </si>
+  <si>
+    <t>1188</t>
+  </si>
+  <si>
+    <t>5315</t>
+  </si>
+  <si>
+    <t>18184</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>2866</t>
+  </si>
+  <si>
+    <t>8354</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>52676</t>
+  </si>
+  <si>
+    <t>18370</t>
+  </si>
+  <si>
+    <t>50792</t>
+  </si>
+  <si>
+    <t>39371</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
     <t>not find heard date</t>
   </si>
   <si>
+    <t>31 october 2011</t>
+  </si>
+  <si>
+    <t>16 september 2011</t>
+  </si>
+  <si>
+    <t>27 july 2011</t>
+  </si>
+  <si>
+    <t>13 september 2012</t>
+  </si>
+  <si>
+    <t>5 june 2012</t>
+  </si>
+  <si>
+    <t>29 january 2013</t>
+  </si>
+  <si>
+    <t>8 march 2013</t>
+  </si>
+  <si>
+    <t>27 november 2014</t>
+  </si>
+  <si>
+    <t>3 march 2014</t>
+  </si>
+  <si>
+    <t>06 september 2016</t>
+  </si>
+  <si>
+    <t>3 june 2016</t>
+  </si>
+  <si>
+    <t>24 may 2017</t>
+  </si>
+  <si>
+    <t>31 january 2017</t>
+  </si>
+  <si>
+    <t>17 february 2017</t>
+  </si>
+  <si>
+    <t>20 september 2018</t>
+  </si>
+  <si>
+    <t>8 june 2018</t>
+  </si>
+  <si>
+    <t>28 february 2018</t>
+  </si>
+  <si>
+    <t>12 october 2018</t>
+  </si>
+  <si>
+    <t>13 september 2018</t>
+  </si>
+  <si>
     <t>not find address</t>
   </si>
   <si>
@@ -112,7 +1132,199 @@
     <t>adjoining road</t>
   </si>
   <si>
+    <t>leeuwen road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">initially at an address in Green Point, but in April 2005 it moved premises to 88 Shortmarket Street, in the central business district.  </t>
+  </si>
+  <si>
+    <t>at 6 Kroneberg Street, Wellington.</t>
+  </si>
+  <si>
+    <t>arterial road</t>
+  </si>
+  <si>
+    <t>in precincts 4 and 6 of Delft Symphony, to vacate such houses by no later than 18h00 on Sunday 17 February 2008.</t>
+  </si>
+  <si>
+    <t>stel street</t>
+  </si>
+  <si>
+    <t>olivia road</t>
+  </si>
+  <si>
+    <t>on a site with electricity, water and sanitation.</t>
+  </si>
+  <si>
+    <t>mapolo street</t>
+  </si>
+  <si>
+    <t>in a small section of District Six on the western side of the Eastern Boulevard that was left physically untouched by the mass removals and demolition that affected most of District Six in one of the well known notorious chapters of apartheid history.</t>
+  </si>
+  <si>
+    <t>strand street</t>
+  </si>
+  <si>
+    <t>in George known as erven 457 and 458 in the Thembatethu residential area in George.</t>
+  </si>
+  <si>
+    <t>at 27 Eloff Street, Portlands Mitchell's Plain.</t>
+  </si>
+  <si>
+    <t>at, and commonly known as, 19 Church Street, Hawston.</t>
+  </si>
+  <si>
+    <t>on both the applicant's property and ACSA's property.</t>
+  </si>
+  <si>
+    <t>saratoga avenue</t>
+  </si>
+  <si>
+    <t>remmit street</t>
+  </si>
+  <si>
+    <t>at Erf 5315 Macassar (the property).</t>
+  </si>
+  <si>
+    <t>at 6 Northumberland Close, Parklands, Table View with immediate effect.</t>
+  </si>
+  <si>
+    <t>moerat road</t>
+  </si>
+  <si>
+    <t>huguenot street</t>
+  </si>
+  <si>
+    <t>at 7 Cecil Rhodes Drive, Ruyterwacht ("the property").</t>
+  </si>
+  <si>
+    <t>on a portion of the property for residential purposes on a month to month basis.</t>
+  </si>
+  <si>
+    <t>national road</t>
+  </si>
+  <si>
+    <t>at 26 Scrabble Crescent, Alpine Park, Beacon Valley, Mitchell’s Plain (‘the property’ or ‘the house’).</t>
+  </si>
+  <si>
+    <t>watsonia street</t>
+  </si>
+  <si>
+    <t>buffelshoek road</t>
+  </si>
+  <si>
+    <t>at 10 Vredelust Street, Helderview Somerset West ...</t>
+  </si>
+  <si>
+    <t>on Applethwaite Farm, Grabouw, Western Cape including all outbuildings thereon, (‘the property’) and including Mr Sipho Tshongweni, are hereby evicted from the property.</t>
+  </si>
+  <si>
+    <t>bamboo street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in Khayelitsha, known as Erf 52676, Khayelitsha ("the property").  </t>
+  </si>
+  <si>
+    <t>olivier road</t>
+  </si>
+  <si>
+    <t>hendon road</t>
+  </si>
+  <si>
+    <t>in Kraaifontein near the City’s border with the Stellenbosch Municipality.</t>
+  </si>
+  <si>
+    <t>at 46 Woodley Road, Plumstead, Cape Town.</t>
+  </si>
+  <si>
+    <t>shortmarket street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at 1 Stratford Avenue Eerste River.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">at the Blaauwberg Nature Reserve (“the reserve”) at Eerste Steen Resort, Otto Du Plessis Drive, Cape Town, (“the property”) comprising the erven listed on “A” hereto, on or before 31 March 2017.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">at[…], Plantation Street, Ceres, Western Cape Province (‘the property’) on or before 30 July 2016, or be forcefully removed by the sheriff or the South African Police Service anytime from 5 July 2016.    </t>
+  </si>
+  <si>
+    <t>malmesbury road</t>
+  </si>
+  <si>
+    <t>b. street</t>
+  </si>
+  <si>
+    <t>new street</t>
+  </si>
+  <si>
+    <t>at […], S. Crescent, Ruyterwacht, Western Cape or before 30 April 2017.</t>
+  </si>
+  <si>
+    <t>leeuwen street</t>
+  </si>
+  <si>
+    <t>on the (City owned)</t>
+  </si>
+  <si>
+    <t>broad road</t>
+  </si>
+  <si>
+    <t>at Erf […], Maasdorp, La Motte, Franschhoek (‘the eviction order’).</t>
+  </si>
+  <si>
+    <t>at erf 235, Stellenbosch on or before 1 March 2019.</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
     <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
   </si>
 </sst>
 </file>
@@ -483,7 +1695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,25 +1732,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>326</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>349</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>369</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -546,25 +1758,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>326</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>349</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>369</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -572,25 +1784,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>249</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>327</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>349</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>369</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -598,25 +1810,2027 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5" t="s">
+        <v>328</v>
+      </c>
+      <c r="F5" t="s">
+        <v>349</v>
+      </c>
+      <c r="G5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F6" t="s">
+        <v>349</v>
+      </c>
+      <c r="G6" t="s">
+        <v>370</v>
+      </c>
+      <c r="H6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F8" t="s">
+        <v>349</v>
+      </c>
+      <c r="G8" t="s">
+        <v>369</v>
+      </c>
+      <c r="H8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" t="s">
+        <v>326</v>
+      </c>
+      <c r="F9" t="s">
+        <v>349</v>
+      </c>
+      <c r="G9" t="s">
+        <v>369</v>
+      </c>
+      <c r="H9" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E10" t="s">
+        <v>326</v>
+      </c>
+      <c r="F10" t="s">
+        <v>349</v>
+      </c>
+      <c r="G10" t="s">
+        <v>372</v>
+      </c>
+      <c r="H10" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E11" t="s">
+        <v>326</v>
+      </c>
+      <c r="F11" t="s">
+        <v>349</v>
+      </c>
+      <c r="G11" t="s">
+        <v>373</v>
+      </c>
+      <c r="H11" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E12" t="s">
+        <v>326</v>
+      </c>
+      <c r="F12" t="s">
+        <v>349</v>
+      </c>
+      <c r="G12" t="s">
+        <v>369</v>
+      </c>
+      <c r="H12" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" t="s">
+        <v>257</v>
+      </c>
+      <c r="E13" t="s">
+        <v>326</v>
+      </c>
+      <c r="F13" t="s">
+        <v>349</v>
+      </c>
+      <c r="G13" t="s">
+        <v>374</v>
+      </c>
+      <c r="H13" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" t="s">
+        <v>258</v>
+      </c>
+      <c r="E14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F14" t="s">
+        <v>349</v>
+      </c>
+      <c r="G14" t="s">
+        <v>369</v>
+      </c>
+      <c r="H14" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" t="s">
+        <v>259</v>
+      </c>
+      <c r="E15" t="s">
+        <v>326</v>
+      </c>
+      <c r="F15" t="s">
+        <v>349</v>
+      </c>
+      <c r="G15" t="s">
+        <v>375</v>
+      </c>
+      <c r="H15" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" t="s">
+        <v>260</v>
+      </c>
+      <c r="E16" t="s">
+        <v>326</v>
+      </c>
+      <c r="F16" t="s">
+        <v>349</v>
+      </c>
+      <c r="G16" t="s">
+        <v>376</v>
+      </c>
+      <c r="H16" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E17" t="s">
+        <v>326</v>
+      </c>
+      <c r="F17" t="s">
+        <v>349</v>
+      </c>
+      <c r="G17" t="s">
+        <v>377</v>
+      </c>
+      <c r="H17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" t="s">
+        <v>262</v>
+      </c>
+      <c r="E18" t="s">
+        <v>326</v>
+      </c>
+      <c r="F18" t="s">
+        <v>349</v>
+      </c>
+      <c r="G18" t="s">
+        <v>369</v>
+      </c>
+      <c r="H18" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" t="s">
+        <v>263</v>
+      </c>
+      <c r="E19" t="s">
+        <v>326</v>
+      </c>
+      <c r="F19" t="s">
+        <v>349</v>
+      </c>
+      <c r="G19" t="s">
+        <v>378</v>
+      </c>
+      <c r="H19" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" t="s">
+        <v>264</v>
+      </c>
+      <c r="E20" t="s">
+        <v>326</v>
+      </c>
+      <c r="F20" t="s">
+        <v>349</v>
+      </c>
+      <c r="G20" t="s">
+        <v>369</v>
+      </c>
+      <c r="H20" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" t="s">
+        <v>331</v>
+      </c>
+      <c r="F21" t="s">
+        <v>349</v>
+      </c>
+      <c r="G21" t="s">
+        <v>379</v>
+      </c>
+      <c r="H21" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G5" t="s">
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" t="s">
+        <v>266</v>
+      </c>
+      <c r="E22" t="s">
+        <v>326</v>
+      </c>
+      <c r="F22" t="s">
+        <v>349</v>
+      </c>
+      <c r="G22" t="s">
+        <v>380</v>
+      </c>
+      <c r="H22" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" t="s">
+        <v>267</v>
+      </c>
+      <c r="E23" t="s">
+        <v>326</v>
+      </c>
+      <c r="F23" t="s">
+        <v>349</v>
+      </c>
+      <c r="G23" t="s">
+        <v>381</v>
+      </c>
+      <c r="H23" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D24" t="s">
+        <v>268</v>
+      </c>
+      <c r="E24" t="s">
+        <v>326</v>
+      </c>
+      <c r="F24" t="s">
+        <v>349</v>
+      </c>
+      <c r="G24" t="s">
+        <v>382</v>
+      </c>
+      <c r="H24" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H5" t="s">
+      <c r="B25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" t="s">
+        <v>269</v>
+      </c>
+      <c r="E25" t="s">
+        <v>326</v>
+      </c>
+      <c r="F25" t="s">
+        <v>349</v>
+      </c>
+      <c r="G25" t="s">
+        <v>383</v>
+      </c>
+      <c r="H25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" t="s">
+        <v>270</v>
+      </c>
+      <c r="E26" t="s">
+        <v>326</v>
+      </c>
+      <c r="F26" t="s">
+        <v>349</v>
+      </c>
+      <c r="G26" t="s">
+        <v>369</v>
+      </c>
+      <c r="H26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" t="s">
+        <v>271</v>
+      </c>
+      <c r="E27" t="s">
+        <v>332</v>
+      </c>
+      <c r="F27" t="s">
+        <v>349</v>
+      </c>
+      <c r="G27" t="s">
+        <v>384</v>
+      </c>
+      <c r="H27" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D28" t="s">
+        <v>272</v>
+      </c>
+      <c r="E28" t="s">
+        <v>326</v>
+      </c>
+      <c r="F28" t="s">
+        <v>349</v>
+      </c>
+      <c r="G28" t="s">
+        <v>385</v>
+      </c>
+      <c r="H28" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29" t="s">
+        <v>273</v>
+      </c>
+      <c r="E29" t="s">
+        <v>333</v>
+      </c>
+      <c r="F29" t="s">
+        <v>349</v>
+      </c>
+      <c r="G29" t="s">
+        <v>369</v>
+      </c>
+      <c r="H29" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" t="s">
+        <v>197</v>
+      </c>
+      <c r="D30" t="s">
+        <v>274</v>
+      </c>
+      <c r="E30" t="s">
+        <v>326</v>
+      </c>
+      <c r="F30" t="s">
+        <v>349</v>
+      </c>
+      <c r="G30" t="s">
+        <v>369</v>
+      </c>
+      <c r="H30" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" t="s">
+        <v>275</v>
+      </c>
+      <c r="E31" t="s">
+        <v>334</v>
+      </c>
+      <c r="F31" t="s">
+        <v>350</v>
+      </c>
+      <c r="G31" t="s">
+        <v>386</v>
+      </c>
+      <c r="H31" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" t="s">
+        <v>199</v>
+      </c>
+      <c r="D32" t="s">
+        <v>276</v>
+      </c>
+      <c r="E32" t="s">
+        <v>335</v>
+      </c>
+      <c r="F32" t="s">
+        <v>349</v>
+      </c>
+      <c r="G32" t="s">
+        <v>369</v>
+      </c>
+      <c r="H32" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" t="s">
+        <v>200</v>
+      </c>
+      <c r="D33" t="s">
+        <v>277</v>
+      </c>
+      <c r="E33" t="s">
+        <v>336</v>
+      </c>
+      <c r="F33" t="s">
+        <v>349</v>
+      </c>
+      <c r="G33" t="s">
+        <v>378</v>
+      </c>
+      <c r="H33" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" t="s">
+        <v>201</v>
+      </c>
+      <c r="D34" t="s">
+        <v>278</v>
+      </c>
+      <c r="E34" t="s">
+        <v>326</v>
+      </c>
+      <c r="F34" t="s">
+        <v>349</v>
+      </c>
+      <c r="G34" t="s">
+        <v>387</v>
+      </c>
+      <c r="H34" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" t="s">
+        <v>202</v>
+      </c>
+      <c r="D35" t="s">
+        <v>279</v>
+      </c>
+      <c r="E35" t="s">
+        <v>326</v>
+      </c>
+      <c r="F35" t="s">
+        <v>351</v>
+      </c>
+      <c r="G35" t="s">
+        <v>378</v>
+      </c>
+      <c r="H35" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" t="s">
+        <v>203</v>
+      </c>
+      <c r="D36" t="s">
+        <v>280</v>
+      </c>
+      <c r="E36" t="s">
+        <v>337</v>
+      </c>
+      <c r="F36" t="s">
+        <v>349</v>
+      </c>
+      <c r="G36" t="s">
+        <v>388</v>
+      </c>
+      <c r="H36" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" t="s">
+        <v>201</v>
+      </c>
+      <c r="D37" t="s">
+        <v>281</v>
+      </c>
+      <c r="E37" t="s">
+        <v>326</v>
+      </c>
+      <c r="F37" t="s">
+        <v>349</v>
+      </c>
+      <c r="G37" t="s">
+        <v>378</v>
+      </c>
+      <c r="H37" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D38" t="s">
+        <v>282</v>
+      </c>
+      <c r="E38" t="s">
+        <v>338</v>
+      </c>
+      <c r="F38" t="s">
+        <v>349</v>
+      </c>
+      <c r="G38" t="s">
+        <v>389</v>
+      </c>
+      <c r="H38" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" t="s">
+        <v>199</v>
+      </c>
+      <c r="D39" t="s">
+        <v>283</v>
+      </c>
+      <c r="E39" t="s">
+        <v>326</v>
+      </c>
+      <c r="F39" t="s">
+        <v>352</v>
+      </c>
+      <c r="G39" t="s">
+        <v>369</v>
+      </c>
+      <c r="H39" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" t="s">
+        <v>284</v>
+      </c>
+      <c r="E40" t="s">
+        <v>326</v>
+      </c>
+      <c r="F40" t="s">
+        <v>349</v>
+      </c>
+      <c r="G40" t="s">
+        <v>390</v>
+      </c>
+      <c r="H40" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" t="s">
+        <v>206</v>
+      </c>
+      <c r="D41" t="s">
+        <v>277</v>
+      </c>
+      <c r="E41" t="s">
+        <v>336</v>
+      </c>
+      <c r="F41" t="s">
+        <v>349</v>
+      </c>
+      <c r="G41" t="s">
+        <v>391</v>
+      </c>
+      <c r="H41" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" t="s">
+        <v>285</v>
+      </c>
+      <c r="E42" t="s">
+        <v>339</v>
+      </c>
+      <c r="F42" t="s">
+        <v>349</v>
+      </c>
+      <c r="G42" t="s">
+        <v>369</v>
+      </c>
+      <c r="H42" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" t="s">
+        <v>208</v>
+      </c>
+      <c r="D43" t="s">
+        <v>286</v>
+      </c>
+      <c r="E43" t="s">
+        <v>326</v>
+      </c>
+      <c r="F43" t="s">
+        <v>353</v>
+      </c>
+      <c r="G43" t="s">
+        <v>369</v>
+      </c>
+      <c r="H43" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" t="s">
+        <v>287</v>
+      </c>
+      <c r="E44" t="s">
+        <v>326</v>
+      </c>
+      <c r="F44" t="s">
+        <v>349</v>
+      </c>
+      <c r="G44" t="s">
+        <v>392</v>
+      </c>
+      <c r="H44" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" t="s">
+        <v>209</v>
+      </c>
+      <c r="D45" t="s">
+        <v>288</v>
+      </c>
+      <c r="E45" t="s">
+        <v>340</v>
+      </c>
+      <c r="F45" t="s">
+        <v>354</v>
+      </c>
+      <c r="G45" t="s">
+        <v>393</v>
+      </c>
+      <c r="H45" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" t="s">
+        <v>210</v>
+      </c>
+      <c r="D46" t="s">
+        <v>289</v>
+      </c>
+      <c r="E46" t="s">
+        <v>326</v>
+      </c>
+      <c r="F46" t="s">
+        <v>349</v>
+      </c>
+      <c r="G46" t="s">
+        <v>394</v>
+      </c>
+      <c r="H46" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" t="s">
+        <v>211</v>
+      </c>
+      <c r="D47" t="s">
+        <v>290</v>
+      </c>
+      <c r="E47" t="s">
+        <v>326</v>
+      </c>
+      <c r="F47" t="s">
+        <v>349</v>
+      </c>
+      <c r="G47" t="s">
+        <v>395</v>
+      </c>
+      <c r="H47" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" t="s">
+        <v>212</v>
+      </c>
+      <c r="D48" t="s">
+        <v>291</v>
+      </c>
+      <c r="E48" t="s">
+        <v>326</v>
+      </c>
+      <c r="F48" t="s">
+        <v>349</v>
+      </c>
+      <c r="G48" t="s">
+        <v>369</v>
+      </c>
+      <c r="H48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" t="s">
+        <v>213</v>
+      </c>
+      <c r="D49" t="s">
+        <v>292</v>
+      </c>
+      <c r="E49" t="s">
+        <v>326</v>
+      </c>
+      <c r="F49" t="s">
+        <v>355</v>
+      </c>
+      <c r="G49" t="s">
+        <v>396</v>
+      </c>
+      <c r="H49" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" t="s">
+        <v>214</v>
+      </c>
+      <c r="D50" t="s">
+        <v>293</v>
+      </c>
+      <c r="E50" t="s">
+        <v>341</v>
+      </c>
+      <c r="F50" t="s">
+        <v>356</v>
+      </c>
+      <c r="G50" t="s">
+        <v>397</v>
+      </c>
+      <c r="H50" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" t="s">
+        <v>215</v>
+      </c>
+      <c r="D51" t="s">
+        <v>294</v>
+      </c>
+      <c r="E51" t="s">
+        <v>326</v>
+      </c>
+      <c r="F51" t="s">
+        <v>349</v>
+      </c>
+      <c r="G51" t="s">
+        <v>398</v>
+      </c>
+      <c r="H51" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" t="s">
+        <v>216</v>
+      </c>
+      <c r="D52" t="s">
+        <v>295</v>
+      </c>
+      <c r="E52" t="s">
+        <v>342</v>
+      </c>
+      <c r="F52" t="s">
+        <v>349</v>
+      </c>
+      <c r="G52" t="s">
+        <v>399</v>
+      </c>
+      <c r="H52" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" t="s">
+        <v>217</v>
+      </c>
+      <c r="D53" t="s">
+        <v>296</v>
+      </c>
+      <c r="E53" t="s">
+        <v>326</v>
+      </c>
+      <c r="F53" t="s">
+        <v>349</v>
+      </c>
+      <c r="G53" t="s">
+        <v>369</v>
+      </c>
+      <c r="H53" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" t="s">
+        <v>218</v>
+      </c>
+      <c r="D54" t="s">
+        <v>297</v>
+      </c>
+      <c r="E54" t="s">
+        <v>326</v>
+      </c>
+      <c r="F54" t="s">
+        <v>349</v>
+      </c>
+      <c r="G54" t="s">
+        <v>369</v>
+      </c>
+      <c r="H54" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" t="s">
+        <v>142</v>
+      </c>
+      <c r="C55" t="s">
+        <v>219</v>
+      </c>
+      <c r="D55" t="s">
+        <v>298</v>
+      </c>
+      <c r="E55" t="s">
+        <v>326</v>
+      </c>
+      <c r="F55" t="s">
+        <v>357</v>
+      </c>
+      <c r="G55" t="s">
+        <v>400</v>
+      </c>
+      <c r="H55" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" t="s">
+        <v>220</v>
+      </c>
+      <c r="D56" t="s">
+        <v>299</v>
+      </c>
+      <c r="E56" t="s">
+        <v>343</v>
+      </c>
+      <c r="F56" t="s">
+        <v>349</v>
+      </c>
+      <c r="G56" t="s">
+        <v>369</v>
+      </c>
+      <c r="H56" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" t="s">
+        <v>221</v>
+      </c>
+      <c r="D57" t="s">
+        <v>300</v>
+      </c>
+      <c r="E57" t="s">
+        <v>326</v>
+      </c>
+      <c r="F57" t="s">
+        <v>358</v>
+      </c>
+      <c r="G57" t="s">
+        <v>401</v>
+      </c>
+      <c r="H57" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" t="s">
+        <v>222</v>
+      </c>
+      <c r="D58" t="s">
+        <v>301</v>
+      </c>
+      <c r="E58" t="s">
+        <v>344</v>
+      </c>
+      <c r="F58" t="s">
+        <v>349</v>
+      </c>
+      <c r="G58" t="s">
+        <v>402</v>
+      </c>
+      <c r="H58" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" t="s">
+        <v>223</v>
+      </c>
+      <c r="D59" t="s">
+        <v>302</v>
+      </c>
+      <c r="E59" t="s">
+        <v>345</v>
+      </c>
+      <c r="F59" t="s">
+        <v>349</v>
+      </c>
+      <c r="G59" t="s">
+        <v>403</v>
+      </c>
+      <c r="H59" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" t="s">
+        <v>224</v>
+      </c>
+      <c r="D60" t="s">
+        <v>303</v>
+      </c>
+      <c r="E60" t="s">
+        <v>340</v>
+      </c>
+      <c r="F60" t="s">
+        <v>349</v>
+      </c>
+      <c r="G60" t="s">
+        <v>404</v>
+      </c>
+      <c r="H60" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" t="s">
+        <v>225</v>
+      </c>
+      <c r="D61" t="s">
+        <v>304</v>
+      </c>
+      <c r="E61" t="s">
+        <v>326</v>
+      </c>
+      <c r="F61" t="s">
+        <v>349</v>
+      </c>
+      <c r="G61" t="s">
+        <v>405</v>
+      </c>
+      <c r="H61" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" t="s">
+        <v>226</v>
+      </c>
+      <c r="D62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E62" t="s">
+        <v>326</v>
+      </c>
+      <c r="F62" t="s">
+        <v>359</v>
+      </c>
+      <c r="G62" t="s">
+        <v>406</v>
+      </c>
+      <c r="H62" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" t="s">
+        <v>227</v>
+      </c>
+      <c r="D63" t="s">
+        <v>306</v>
+      </c>
+      <c r="E63" t="s">
+        <v>326</v>
+      </c>
+      <c r="F63" t="s">
+        <v>349</v>
+      </c>
+      <c r="G63" t="s">
+        <v>407</v>
+      </c>
+      <c r="H63" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" t="s">
+        <v>228</v>
+      </c>
+      <c r="D64" t="s">
+        <v>307</v>
+      </c>
+      <c r="E64" t="s">
+        <v>326</v>
+      </c>
+      <c r="F64" t="s">
+        <v>349</v>
+      </c>
+      <c r="G64" t="s">
+        <v>408</v>
+      </c>
+      <c r="H64" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" t="s">
+        <v>229</v>
+      </c>
+      <c r="D65" t="s">
+        <v>308</v>
+      </c>
+      <c r="E65" t="s">
+        <v>326</v>
+      </c>
+      <c r="F65" t="s">
+        <v>360</v>
+      </c>
+      <c r="G65" t="s">
+        <v>369</v>
+      </c>
+      <c r="H65" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" t="s">
+        <v>230</v>
+      </c>
+      <c r="D66" t="s">
+        <v>309</v>
+      </c>
+      <c r="E66" t="s">
+        <v>326</v>
+      </c>
+      <c r="F66" t="s">
+        <v>349</v>
+      </c>
+      <c r="G66" t="s">
+        <v>409</v>
+      </c>
+      <c r="H66" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" t="s">
+        <v>154</v>
+      </c>
+      <c r="C67" t="s">
+        <v>231</v>
+      </c>
+      <c r="D67" t="s">
+        <v>310</v>
+      </c>
+      <c r="E67" t="s">
+        <v>326</v>
+      </c>
+      <c r="F67" t="s">
+        <v>349</v>
+      </c>
+      <c r="G67" t="s">
+        <v>410</v>
+      </c>
+      <c r="H67" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" t="s">
+        <v>232</v>
+      </c>
+      <c r="D68" t="s">
+        <v>311</v>
+      </c>
+      <c r="E68" t="s">
+        <v>326</v>
+      </c>
+      <c r="F68" t="s">
+        <v>361</v>
+      </c>
+      <c r="G68" t="s">
+        <v>369</v>
+      </c>
+      <c r="H68" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69" t="s">
+        <v>233</v>
+      </c>
+      <c r="D69" t="s">
+        <v>312</v>
+      </c>
+      <c r="E69" t="s">
+        <v>326</v>
+      </c>
+      <c r="F69" t="s">
+        <v>349</v>
+      </c>
+      <c r="G69" t="s">
+        <v>411</v>
+      </c>
+      <c r="H69" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" t="s">
+        <v>234</v>
+      </c>
+      <c r="D70" t="s">
+        <v>313</v>
+      </c>
+      <c r="E70" t="s">
+        <v>326</v>
+      </c>
+      <c r="F70" t="s">
+        <v>349</v>
+      </c>
+      <c r="G70" t="s">
+        <v>412</v>
+      </c>
+      <c r="H70" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71" t="s">
+        <v>235</v>
+      </c>
+      <c r="D71" t="s">
+        <v>314</v>
+      </c>
+      <c r="E71" t="s">
+        <v>346</v>
+      </c>
+      <c r="F71" t="s">
+        <v>362</v>
+      </c>
+      <c r="G71" t="s">
+        <v>413</v>
+      </c>
+      <c r="H71" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" t="s">
+        <v>236</v>
+      </c>
+      <c r="D72" t="s">
+        <v>315</v>
+      </c>
+      <c r="E72" t="s">
+        <v>326</v>
+      </c>
+      <c r="F72" t="s">
+        <v>349</v>
+      </c>
+      <c r="G72" t="s">
+        <v>414</v>
+      </c>
+      <c r="H72" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" t="s">
+        <v>237</v>
+      </c>
+      <c r="D73" t="s">
+        <v>316</v>
+      </c>
+      <c r="E73" t="s">
+        <v>326</v>
+      </c>
+      <c r="F73" t="s">
+        <v>363</v>
+      </c>
+      <c r="G73" t="s">
+        <v>369</v>
+      </c>
+      <c r="H73" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" t="s">
+        <v>238</v>
+      </c>
+      <c r="D74" t="s">
+        <v>317</v>
+      </c>
+      <c r="E74" t="s">
+        <v>326</v>
+      </c>
+      <c r="F74" t="s">
+        <v>349</v>
+      </c>
+      <c r="G74" t="s">
+        <v>369</v>
+      </c>
+      <c r="H74" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75" t="s">
+        <v>239</v>
+      </c>
+      <c r="D75" t="s">
+        <v>318</v>
+      </c>
+      <c r="E75" t="s">
+        <v>326</v>
+      </c>
+      <c r="F75" t="s">
+        <v>349</v>
+      </c>
+      <c r="G75" t="s">
+        <v>415</v>
+      </c>
+      <c r="H75" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" t="s">
+        <v>163</v>
+      </c>
+      <c r="C76" t="s">
+        <v>240</v>
+      </c>
+      <c r="D76" t="s">
+        <v>319</v>
+      </c>
+      <c r="E76" t="s">
+        <v>347</v>
+      </c>
+      <c r="F76" t="s">
+        <v>364</v>
+      </c>
+      <c r="G76" t="s">
+        <v>416</v>
+      </c>
+      <c r="H76" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" t="s">
+        <v>241</v>
+      </c>
+      <c r="D77" t="s">
+        <v>320</v>
+      </c>
+      <c r="E77" t="s">
+        <v>326</v>
+      </c>
+      <c r="F77" t="s">
+        <v>365</v>
+      </c>
+      <c r="G77" t="s">
+        <v>417</v>
+      </c>
+      <c r="H77" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" t="s">
+        <v>242</v>
+      </c>
+      <c r="D78" t="s">
+        <v>321</v>
+      </c>
+      <c r="E78" t="s">
+        <v>326</v>
+      </c>
+      <c r="F78" t="s">
+        <v>366</v>
+      </c>
+      <c r="G78" t="s">
+        <v>404</v>
+      </c>
+      <c r="H78" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" t="s">
+        <v>243</v>
+      </c>
+      <c r="D79" t="s">
+        <v>322</v>
+      </c>
+      <c r="E79" t="s">
+        <v>326</v>
+      </c>
+      <c r="F79" t="s">
+        <v>367</v>
+      </c>
+      <c r="G79" t="s">
+        <v>369</v>
+      </c>
+      <c r="H79" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" t="s">
+        <v>167</v>
+      </c>
+      <c r="C80" t="s">
+        <v>244</v>
+      </c>
+      <c r="D80" t="s">
+        <v>323</v>
+      </c>
+      <c r="E80" t="s">
+        <v>326</v>
+      </c>
+      <c r="F80" t="s">
+        <v>368</v>
+      </c>
+      <c r="G80" t="s">
+        <v>369</v>
+      </c>
+      <c r="H80" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" t="s">
+        <v>245</v>
+      </c>
+      <c r="D81" t="s">
+        <v>324</v>
+      </c>
+      <c r="E81" t="s">
+        <v>326</v>
+      </c>
+      <c r="F81" t="s">
+        <v>349</v>
+      </c>
+      <c r="G81" t="s">
+        <v>418</v>
+      </c>
+      <c r="H81" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" t="s">
+        <v>169</v>
+      </c>
+      <c r="C82" t="s">
+        <v>246</v>
+      </c>
+      <c r="D82" t="s">
+        <v>325</v>
+      </c>
+      <c r="E82" t="s">
+        <v>348</v>
+      </c>
+      <c r="F82" t="s">
+        <v>349</v>
+      </c>
+      <c r="G82" t="s">
+        <v>419</v>
+      </c>
+      <c r="H82" t="s">
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -625,6 +3839,83 @@
     <hyperlink ref="A3" r:id="rId2"/>
     <hyperlink ref="A4" r:id="rId3"/>
     <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A23" r:id="rId22"/>
+    <hyperlink ref="A24" r:id="rId23"/>
+    <hyperlink ref="A25" r:id="rId24"/>
+    <hyperlink ref="A26" r:id="rId25"/>
+    <hyperlink ref="A27" r:id="rId26"/>
+    <hyperlink ref="A28" r:id="rId27"/>
+    <hyperlink ref="A29" r:id="rId28"/>
+    <hyperlink ref="A30" r:id="rId29"/>
+    <hyperlink ref="A31" r:id="rId30"/>
+    <hyperlink ref="A32" r:id="rId31"/>
+    <hyperlink ref="A33" r:id="rId32"/>
+    <hyperlink ref="A34" r:id="rId33"/>
+    <hyperlink ref="A35" r:id="rId34"/>
+    <hyperlink ref="A36" r:id="rId35"/>
+    <hyperlink ref="A37" r:id="rId36"/>
+    <hyperlink ref="A38" r:id="rId37"/>
+    <hyperlink ref="A39" r:id="rId38"/>
+    <hyperlink ref="A40" r:id="rId39"/>
+    <hyperlink ref="A41" r:id="rId40"/>
+    <hyperlink ref="A42" r:id="rId41"/>
+    <hyperlink ref="A43" r:id="rId42"/>
+    <hyperlink ref="A44" r:id="rId43"/>
+    <hyperlink ref="A45" r:id="rId44"/>
+    <hyperlink ref="A46" r:id="rId45"/>
+    <hyperlink ref="A47" r:id="rId46"/>
+    <hyperlink ref="A48" r:id="rId47"/>
+    <hyperlink ref="A49" r:id="rId48"/>
+    <hyperlink ref="A50" r:id="rId49"/>
+    <hyperlink ref="A51" r:id="rId50"/>
+    <hyperlink ref="A52" r:id="rId51"/>
+    <hyperlink ref="A53" r:id="rId52"/>
+    <hyperlink ref="A54" r:id="rId53"/>
+    <hyperlink ref="A55" r:id="rId54"/>
+    <hyperlink ref="A56" r:id="rId55"/>
+    <hyperlink ref="A57" r:id="rId56"/>
+    <hyperlink ref="A58" r:id="rId57"/>
+    <hyperlink ref="A59" r:id="rId58"/>
+    <hyperlink ref="A60" r:id="rId59"/>
+    <hyperlink ref="A61" r:id="rId60"/>
+    <hyperlink ref="A62" r:id="rId61"/>
+    <hyperlink ref="A63" r:id="rId62"/>
+    <hyperlink ref="A64" r:id="rId63"/>
+    <hyperlink ref="A65" r:id="rId64"/>
+    <hyperlink ref="A66" r:id="rId65"/>
+    <hyperlink ref="A67" r:id="rId66"/>
+    <hyperlink ref="A68" r:id="rId67"/>
+    <hyperlink ref="A69" r:id="rId68"/>
+    <hyperlink ref="A70" r:id="rId69"/>
+    <hyperlink ref="A71" r:id="rId70"/>
+    <hyperlink ref="A72" r:id="rId71"/>
+    <hyperlink ref="A73" r:id="rId72"/>
+    <hyperlink ref="A74" r:id="rId73"/>
+    <hyperlink ref="A75" r:id="rId74"/>
+    <hyperlink ref="A76" r:id="rId75"/>
+    <hyperlink ref="A77" r:id="rId76"/>
+    <hyperlink ref="A78" r:id="rId77"/>
+    <hyperlink ref="A79" r:id="rId78"/>
+    <hyperlink ref="A80" r:id="rId79"/>
+    <hyperlink ref="A81" r:id="rId80"/>
+    <hyperlink ref="A82" r:id="rId81"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pie.xlsx
+++ b/pie.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyjia\Desktop\sjcdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215D7EC0-4EF2-435D-84FB-81F0EC6526A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="420">
   <si>
     <t>url</t>
   </si>
@@ -1274,68 +1287,20 @@
   </si>
   <si>
     <t>at erf 235, Stellenbosch on or before 1 March 2019.</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1343,7 +1308,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1353,6 +1318,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1394,12 +1366,17 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1407,6 +1384,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1453,7 +1438,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1485,9 +1470,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1519,6 +1522,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1694,12 +1715,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.25"/>
+  <cols>
+    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.40625" customWidth="1"/>
+    <col min="3" max="3" width="18.2265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.1328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -1708,7 +1737,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1727,14 +1756,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="14.75">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>170</v>
       </c>
       <c r="D2" t="s">
@@ -1749,18 +1778,18 @@
       <c r="G2" t="s">
         <v>369</v>
       </c>
-      <c r="H2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2" s="5">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.75">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>171</v>
       </c>
       <c r="D3" t="s">
@@ -1775,18 +1804,18 @@
       <c r="G3" t="s">
         <v>369</v>
       </c>
-      <c r="H3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="H3" s="5">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.75">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>172</v>
       </c>
       <c r="D4" t="s">
@@ -1801,18 +1830,18 @@
       <c r="G4" t="s">
         <v>369</v>
       </c>
-      <c r="H4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="H4" s="5">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.75">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>173</v>
       </c>
       <c r="D5" t="s">
@@ -1827,18 +1856,18 @@
       <c r="G5" t="s">
         <v>369</v>
       </c>
-      <c r="H5" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5" s="5">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.75">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>174</v>
       </c>
       <c r="D6" t="s">
@@ -1853,18 +1882,18 @@
       <c r="G6" t="s">
         <v>370</v>
       </c>
-      <c r="H6" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" s="5">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.75">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>175</v>
       </c>
       <c r="D7" t="s">
@@ -1879,18 +1908,18 @@
       <c r="G7" t="s">
         <v>371</v>
       </c>
-      <c r="H7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" s="5">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.75">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>176</v>
       </c>
       <c r="D8" t="s">
@@ -1905,18 +1934,18 @@
       <c r="G8" t="s">
         <v>369</v>
       </c>
-      <c r="H8" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8" s="5">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.75">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>176</v>
       </c>
       <c r="D9" t="s">
@@ -1931,18 +1960,18 @@
       <c r="G9" t="s">
         <v>369</v>
       </c>
-      <c r="H9" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9" s="5">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.75">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>177</v>
       </c>
       <c r="D10" t="s">
@@ -1957,18 +1986,18 @@
       <c r="G10" t="s">
         <v>372</v>
       </c>
-      <c r="H10" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10" s="5">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.75">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>178</v>
       </c>
       <c r="D11" t="s">
@@ -1983,18 +2012,18 @@
       <c r="G11" t="s">
         <v>373</v>
       </c>
-      <c r="H11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11" s="5">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.75">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>99</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>179</v>
       </c>
       <c r="D12" t="s">
@@ -2009,18 +2038,18 @@
       <c r="G12" t="s">
         <v>369</v>
       </c>
-      <c r="H12" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12" s="5">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.75">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>180</v>
       </c>
       <c r="D13" t="s">
@@ -2035,18 +2064,18 @@
       <c r="G13" t="s">
         <v>374</v>
       </c>
-      <c r="H13" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" s="5">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.75">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D14" t="s">
@@ -2061,18 +2090,18 @@
       <c r="G14" t="s">
         <v>369</v>
       </c>
-      <c r="H14" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="H14" s="5">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.75">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" t="s">
@@ -2087,18 +2116,18 @@
       <c r="G15" t="s">
         <v>375</v>
       </c>
-      <c r="H15" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="H15" s="5">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.75">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>103</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>183</v>
       </c>
       <c r="D16" t="s">
@@ -2113,18 +2142,18 @@
       <c r="G16" t="s">
         <v>376</v>
       </c>
-      <c r="H16" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="H16" s="5">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.75">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D17" t="s">
@@ -2139,18 +2168,18 @@
       <c r="G17" t="s">
         <v>377</v>
       </c>
-      <c r="H17" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="H17" s="5">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.75">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>185</v>
       </c>
       <c r="D18" t="s">
@@ -2165,18 +2194,18 @@
       <c r="G18" t="s">
         <v>369</v>
       </c>
-      <c r="H18" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="H18" s="5">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.75">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>186</v>
       </c>
       <c r="D19" t="s">
@@ -2191,18 +2220,18 @@
       <c r="G19" t="s">
         <v>378</v>
       </c>
-      <c r="H19" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="H19" s="5">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.75">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>187</v>
       </c>
       <c r="D20" t="s">
@@ -2217,18 +2246,18 @@
       <c r="G20" t="s">
         <v>369</v>
       </c>
-      <c r="H20" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="H20" s="5">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.75">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D21" t="s">
@@ -2243,18 +2272,18 @@
       <c r="G21" t="s">
         <v>379</v>
       </c>
-      <c r="H21" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="H21" s="5">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.75">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D22" t="s">
@@ -2269,18 +2298,18 @@
       <c r="G22" t="s">
         <v>380</v>
       </c>
-      <c r="H22" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="H22" s="5">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.75">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>110</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>190</v>
       </c>
       <c r="D23" t="s">
@@ -2295,18 +2324,18 @@
       <c r="G23" t="s">
         <v>381</v>
       </c>
-      <c r="H23" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="H23" s="5">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14.75">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>191</v>
       </c>
       <c r="D24" t="s">
@@ -2321,18 +2350,18 @@
       <c r="G24" t="s">
         <v>382</v>
       </c>
-      <c r="H24" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="H24" s="5">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.75">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>192</v>
       </c>
       <c r="D25" t="s">
@@ -2347,18 +2376,18 @@
       <c r="G25" t="s">
         <v>383</v>
       </c>
-      <c r="H25" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="H25" s="5">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.75">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>113</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>193</v>
       </c>
       <c r="D26" t="s">
@@ -2373,18 +2402,18 @@
       <c r="G26" t="s">
         <v>369</v>
       </c>
-      <c r="H26" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="H26" s="5">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.75">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>114</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>194</v>
       </c>
       <c r="D27" t="s">
@@ -2399,18 +2428,18 @@
       <c r="G27" t="s">
         <v>384</v>
       </c>
-      <c r="H27" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="H27" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.75">
       <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>115</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="4" t="s">
         <v>195</v>
       </c>
       <c r="D28" t="s">
@@ -2425,18 +2454,18 @@
       <c r="G28" t="s">
         <v>385</v>
       </c>
-      <c r="H28" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="H28" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14.75">
       <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>196</v>
       </c>
       <c r="D29" t="s">
@@ -2451,18 +2480,18 @@
       <c r="G29" t="s">
         <v>369</v>
       </c>
-      <c r="H29" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="H29" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.75">
       <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
         <v>117</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="4" t="s">
         <v>197</v>
       </c>
       <c r="D30" t="s">
@@ -2477,18 +2506,18 @@
       <c r="G30" t="s">
         <v>369</v>
       </c>
-      <c r="H30" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="H30" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.75">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
         <v>118</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="4" t="s">
         <v>198</v>
       </c>
       <c r="D31" t="s">
@@ -2503,18 +2532,18 @@
       <c r="G31" t="s">
         <v>386</v>
       </c>
-      <c r="H31" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="H31" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.75">
       <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
         <v>119</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D32" t="s">
@@ -2529,18 +2558,18 @@
       <c r="G32" t="s">
         <v>369</v>
       </c>
-      <c r="H32" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="H32" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="14.75">
       <c r="A33" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="s">
         <v>120</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D33" t="s">
@@ -2555,18 +2584,18 @@
       <c r="G33" t="s">
         <v>378</v>
       </c>
-      <c r="H33" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="H33" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="14.75">
       <c r="A34" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
         <v>121</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="4" t="s">
         <v>201</v>
       </c>
       <c r="D34" t="s">
@@ -2581,18 +2610,18 @@
       <c r="G34" t="s">
         <v>387</v>
       </c>
-      <c r="H34" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="H34" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14.75">
       <c r="A35" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="s">
         <v>122</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="4" t="s">
         <v>202</v>
       </c>
       <c r="D35" t="s">
@@ -2607,18 +2636,18 @@
       <c r="G35" t="s">
         <v>378</v>
       </c>
-      <c r="H35" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="H35" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="14.75">
       <c r="A36" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="s">
         <v>123</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="4" t="s">
         <v>203</v>
       </c>
       <c r="D36" t="s">
@@ -2633,18 +2662,18 @@
       <c r="G36" t="s">
         <v>388</v>
       </c>
-      <c r="H36" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="H36" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="14.75">
       <c r="A37" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B37" t="s">
         <v>124</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="4" t="s">
         <v>201</v>
       </c>
       <c r="D37" t="s">
@@ -2659,18 +2688,18 @@
       <c r="G37" t="s">
         <v>378</v>
       </c>
-      <c r="H37" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="H37" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="14.75">
       <c r="A38" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B38" t="s">
         <v>125</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>204</v>
       </c>
       <c r="D38" t="s">
@@ -2685,18 +2714,18 @@
       <c r="G38" t="s">
         <v>389</v>
       </c>
-      <c r="H38" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="H38" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="14.75">
       <c r="A39" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B39" t="s">
         <v>126</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D39" t="s">
@@ -2711,18 +2740,18 @@
       <c r="G39" t="s">
         <v>369</v>
       </c>
-      <c r="H39" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="H39" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="14.75">
       <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B40" t="s">
         <v>127</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="4" t="s">
         <v>205</v>
       </c>
       <c r="D40" t="s">
@@ -2737,18 +2766,18 @@
       <c r="G40" t="s">
         <v>390</v>
       </c>
-      <c r="H40" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="H40" s="5">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="14.75">
       <c r="A41" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B41" t="s">
         <v>128</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="4" t="s">
         <v>206</v>
       </c>
       <c r="D41" t="s">
@@ -2763,18 +2792,18 @@
       <c r="G41" t="s">
         <v>391</v>
       </c>
-      <c r="H41" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="H41" s="5">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="14.75">
       <c r="A42" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="s">
         <v>129</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="4" t="s">
         <v>207</v>
       </c>
       <c r="D42" t="s">
@@ -2789,18 +2818,18 @@
       <c r="G42" t="s">
         <v>369</v>
       </c>
-      <c r="H42" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="H42" s="5">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="14.75">
       <c r="A43" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B43" t="s">
         <v>130</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="4" t="s">
         <v>208</v>
       </c>
       <c r="D43" t="s">
@@ -2815,18 +2844,18 @@
       <c r="G43" t="s">
         <v>369</v>
       </c>
-      <c r="H43" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="H43" s="5">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="14.75">
       <c r="A44" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B44" t="s">
         <v>131</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="4" t="s">
         <v>207</v>
       </c>
       <c r="D44" t="s">
@@ -2841,18 +2870,18 @@
       <c r="G44" t="s">
         <v>392</v>
       </c>
-      <c r="H44" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="H44" s="5">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="14.75">
       <c r="A45" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B45" t="s">
         <v>132</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="4" t="s">
         <v>209</v>
       </c>
       <c r="D45" t="s">
@@ -2867,18 +2896,18 @@
       <c r="G45" t="s">
         <v>393</v>
       </c>
-      <c r="H45" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="H45" s="5">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="14.75">
       <c r="A46" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
         <v>133</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="4" t="s">
         <v>210</v>
       </c>
       <c r="D46" t="s">
@@ -2893,18 +2922,18 @@
       <c r="G46" t="s">
         <v>394</v>
       </c>
-      <c r="H46" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="H46" s="5">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="14.75">
       <c r="A47" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B47" t="s">
         <v>134</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D47" t="s">
@@ -2919,18 +2948,18 @@
       <c r="G47" t="s">
         <v>395</v>
       </c>
-      <c r="H47" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="H47" s="5">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="14.75">
       <c r="A48" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B48" t="s">
         <v>135</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="4" t="s">
         <v>212</v>
       </c>
       <c r="D48" t="s">
@@ -2945,18 +2974,18 @@
       <c r="G48" t="s">
         <v>369</v>
       </c>
-      <c r="H48" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="H48" s="5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="14.75">
       <c r="A49" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B49" t="s">
         <v>136</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="4" t="s">
         <v>213</v>
       </c>
       <c r="D49" t="s">
@@ -2971,18 +3000,18 @@
       <c r="G49" t="s">
         <v>396</v>
       </c>
-      <c r="H49" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="H49" s="5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="14.75">
       <c r="A50" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B50" t="s">
         <v>137</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="4" t="s">
         <v>214</v>
       </c>
       <c r="D50" t="s">
@@ -2997,18 +3026,18 @@
       <c r="G50" t="s">
         <v>397</v>
       </c>
-      <c r="H50" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="H50" s="5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="14.75">
       <c r="A51" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B51" t="s">
         <v>138</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="4" t="s">
         <v>215</v>
       </c>
       <c r="D51" t="s">
@@ -3023,18 +3052,18 @@
       <c r="G51" t="s">
         <v>398</v>
       </c>
-      <c r="H51" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="H51" s="5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="14.75">
       <c r="A52" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B52" t="s">
         <v>139</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="4" t="s">
         <v>216</v>
       </c>
       <c r="D52" t="s">
@@ -3049,18 +3078,18 @@
       <c r="G52" t="s">
         <v>399</v>
       </c>
-      <c r="H52" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="H52" s="5">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="14.75">
       <c r="A53" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B53" t="s">
         <v>140</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="4" t="s">
         <v>217</v>
       </c>
       <c r="D53" t="s">
@@ -3075,18 +3104,18 @@
       <c r="G53" t="s">
         <v>369</v>
       </c>
-      <c r="H53" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="H53" s="5">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="14.75">
       <c r="A54" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B54" t="s">
         <v>141</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="4" t="s">
         <v>218</v>
       </c>
       <c r="D54" t="s">
@@ -3101,18 +3130,18 @@
       <c r="G54" t="s">
         <v>369</v>
       </c>
-      <c r="H54" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="H54" s="5">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="14.75">
       <c r="A55" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B55" t="s">
         <v>142</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="4" t="s">
         <v>219</v>
       </c>
       <c r="D55" t="s">
@@ -3127,18 +3156,18 @@
       <c r="G55" t="s">
         <v>400</v>
       </c>
-      <c r="H55" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="H55" s="5">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="14.75">
       <c r="A56" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B56" t="s">
         <v>143</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="4" t="s">
         <v>220</v>
       </c>
       <c r="D56" t="s">
@@ -3153,18 +3182,18 @@
       <c r="G56" t="s">
         <v>369</v>
       </c>
-      <c r="H56" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="H56" s="5">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="14.75">
       <c r="A57" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B57" t="s">
         <v>144</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="4" t="s">
         <v>221</v>
       </c>
       <c r="D57" t="s">
@@ -3179,18 +3208,18 @@
       <c r="G57" t="s">
         <v>401</v>
       </c>
-      <c r="H57" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="H57" s="5">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="14.75">
       <c r="A58" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B58" t="s">
         <v>145</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="4" t="s">
         <v>222</v>
       </c>
       <c r="D58" t="s">
@@ -3205,18 +3234,18 @@
       <c r="G58" t="s">
         <v>402</v>
       </c>
-      <c r="H58" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="H58" s="5">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="14.75">
       <c r="A59" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B59" t="s">
         <v>146</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="4" t="s">
         <v>223</v>
       </c>
       <c r="D59" t="s">
@@ -3231,18 +3260,18 @@
       <c r="G59" t="s">
         <v>403</v>
       </c>
-      <c r="H59" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="H59" s="5">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="14.75">
       <c r="A60" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B60" t="s">
         <v>147</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="4" t="s">
         <v>224</v>
       </c>
       <c r="D60" t="s">
@@ -3257,18 +3286,18 @@
       <c r="G60" t="s">
         <v>404</v>
       </c>
-      <c r="H60" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="H60" s="5">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="14.75">
       <c r="A61" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B61" t="s">
         <v>148</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="4" t="s">
         <v>225</v>
       </c>
       <c r="D61" t="s">
@@ -3283,18 +3312,18 @@
       <c r="G61" t="s">
         <v>405</v>
       </c>
-      <c r="H61" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="H61" s="5">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="14.75">
       <c r="A62" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B62" t="s">
         <v>149</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="4" t="s">
         <v>226</v>
       </c>
       <c r="D62" t="s">
@@ -3309,18 +3338,18 @@
       <c r="G62" t="s">
         <v>406</v>
       </c>
-      <c r="H62" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="H62" s="5">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="14.75">
       <c r="A63" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B63" t="s">
         <v>150</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="4" t="s">
         <v>227</v>
       </c>
       <c r="D63" t="s">
@@ -3335,18 +3364,18 @@
       <c r="G63" t="s">
         <v>407</v>
       </c>
-      <c r="H63" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="H63" s="5">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="14.75">
       <c r="A64" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B64" t="s">
         <v>151</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="4" t="s">
         <v>228</v>
       </c>
       <c r="D64" t="s">
@@ -3361,18 +3390,18 @@
       <c r="G64" t="s">
         <v>408</v>
       </c>
-      <c r="H64" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="H64" s="5">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="14.75">
       <c r="A65" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="s">
         <v>152</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="4" t="s">
         <v>229</v>
       </c>
       <c r="D65" t="s">
@@ -3387,18 +3416,18 @@
       <c r="G65" t="s">
         <v>369</v>
       </c>
-      <c r="H65" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="H65" s="5">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="14.75">
       <c r="A66" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B66" t="s">
         <v>153</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="4" t="s">
         <v>230</v>
       </c>
       <c r="D66" t="s">
@@ -3413,18 +3442,18 @@
       <c r="G66" t="s">
         <v>409</v>
       </c>
-      <c r="H66" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="H66" s="5">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="14.75">
       <c r="A67" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B67" t="s">
         <v>154</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="4" t="s">
         <v>231</v>
       </c>
       <c r="D67" t="s">
@@ -3439,18 +3468,18 @@
       <c r="G67" t="s">
         <v>410</v>
       </c>
-      <c r="H67" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="H67" s="5">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="14.75">
       <c r="A68" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B68" t="s">
         <v>155</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="4" t="s">
         <v>232</v>
       </c>
       <c r="D68" t="s">
@@ -3465,18 +3494,18 @@
       <c r="G68" t="s">
         <v>369</v>
       </c>
-      <c r="H68" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="H68" s="5">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="14.75">
       <c r="A69" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B69" t="s">
         <v>156</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="4" t="s">
         <v>233</v>
       </c>
       <c r="D69" t="s">
@@ -3491,18 +3520,18 @@
       <c r="G69" t="s">
         <v>411</v>
       </c>
-      <c r="H69" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="H69" s="5">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="14.75">
       <c r="A70" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B70" t="s">
         <v>157</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="4" t="s">
         <v>234</v>
       </c>
       <c r="D70" t="s">
@@ -3517,18 +3546,18 @@
       <c r="G70" t="s">
         <v>412</v>
       </c>
-      <c r="H70" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="H70" s="5">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="14.75">
       <c r="A71" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B71" t="s">
         <v>158</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="4" t="s">
         <v>235</v>
       </c>
       <c r="D71" t="s">
@@ -3543,18 +3572,18 @@
       <c r="G71" t="s">
         <v>413</v>
       </c>
-      <c r="H71" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="H71" s="5">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="14.75">
       <c r="A72" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B72" t="s">
         <v>159</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="4" t="s">
         <v>236</v>
       </c>
       <c r="D72" t="s">
@@ -3569,18 +3598,18 @@
       <c r="G72" t="s">
         <v>414</v>
       </c>
-      <c r="H72" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="H72" s="5">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="14.75">
       <c r="A73" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B73" t="s">
         <v>160</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="4" t="s">
         <v>237</v>
       </c>
       <c r="D73" t="s">
@@ -3595,18 +3624,18 @@
       <c r="G73" t="s">
         <v>369</v>
       </c>
-      <c r="H73" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="H73" s="5">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="14.75">
       <c r="A74" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B74" t="s">
         <v>161</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D74" t="s">
@@ -3621,18 +3650,18 @@
       <c r="G74" t="s">
         <v>369</v>
       </c>
-      <c r="H74" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="H74" s="5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="14.75">
       <c r="A75" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B75" t="s">
         <v>162</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="4" t="s">
         <v>239</v>
       </c>
       <c r="D75" t="s">
@@ -3647,18 +3676,18 @@
       <c r="G75" t="s">
         <v>415</v>
       </c>
-      <c r="H75" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="H75" s="5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="14.75">
       <c r="A76" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B76" t="s">
         <v>163</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="4" t="s">
         <v>240</v>
       </c>
       <c r="D76" t="s">
@@ -3673,18 +3702,18 @@
       <c r="G76" t="s">
         <v>416</v>
       </c>
-      <c r="H76" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="H76" s="5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="14.75">
       <c r="A77" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B77" t="s">
         <v>164</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="4" t="s">
         <v>241</v>
       </c>
       <c r="D77" t="s">
@@ -3699,18 +3728,18 @@
       <c r="G77" t="s">
         <v>417</v>
       </c>
-      <c r="H77" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="H77" s="5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="14.75">
       <c r="A78" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B78" t="s">
         <v>165</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="4" t="s">
         <v>242</v>
       </c>
       <c r="D78" t="s">
@@ -3725,18 +3754,18 @@
       <c r="G78" t="s">
         <v>404</v>
       </c>
-      <c r="H78" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="H78" s="5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="14.75">
       <c r="A79" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B79" t="s">
         <v>166</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="4" t="s">
         <v>243</v>
       </c>
       <c r="D79" t="s">
@@ -3751,18 +3780,18 @@
       <c r="G79" t="s">
         <v>369</v>
       </c>
-      <c r="H79" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="H79" s="5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="14.75">
       <c r="A80" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B80" t="s">
         <v>167</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="4" t="s">
         <v>244</v>
       </c>
       <c r="D80" t="s">
@@ -3777,18 +3806,18 @@
       <c r="G80" t="s">
         <v>369</v>
       </c>
-      <c r="H80" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="H80" s="5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="14.75">
       <c r="A81" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B81" t="s">
         <v>168</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D81" t="s">
@@ -3803,18 +3832,18 @@
       <c r="G81" t="s">
         <v>418</v>
       </c>
-      <c r="H81" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="H81" s="5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="14.75">
       <c r="A82" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B82" t="s">
         <v>169</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="4" t="s">
         <v>246</v>
       </c>
       <c r="D82" t="s">
@@ -3829,93 +3858,94 @@
       <c r="G82" t="s">
         <v>419</v>
       </c>
-      <c r="H82" t="s">
-        <v>436</v>
+      <c r="H82" s="5">
+        <v>2018</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="A9" r:id="rId8"/>
-    <hyperlink ref="A10" r:id="rId9"/>
-    <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A12" r:id="rId11"/>
-    <hyperlink ref="A13" r:id="rId12"/>
-    <hyperlink ref="A14" r:id="rId13"/>
-    <hyperlink ref="A15" r:id="rId14"/>
-    <hyperlink ref="A16" r:id="rId15"/>
-    <hyperlink ref="A17" r:id="rId16"/>
-    <hyperlink ref="A18" r:id="rId17"/>
-    <hyperlink ref="A19" r:id="rId18"/>
-    <hyperlink ref="A20" r:id="rId19"/>
-    <hyperlink ref="A21" r:id="rId20"/>
-    <hyperlink ref="A22" r:id="rId21"/>
-    <hyperlink ref="A23" r:id="rId22"/>
-    <hyperlink ref="A24" r:id="rId23"/>
-    <hyperlink ref="A25" r:id="rId24"/>
-    <hyperlink ref="A26" r:id="rId25"/>
-    <hyperlink ref="A27" r:id="rId26"/>
-    <hyperlink ref="A28" r:id="rId27"/>
-    <hyperlink ref="A29" r:id="rId28"/>
-    <hyperlink ref="A30" r:id="rId29"/>
-    <hyperlink ref="A31" r:id="rId30"/>
-    <hyperlink ref="A32" r:id="rId31"/>
-    <hyperlink ref="A33" r:id="rId32"/>
-    <hyperlink ref="A34" r:id="rId33"/>
-    <hyperlink ref="A35" r:id="rId34"/>
-    <hyperlink ref="A36" r:id="rId35"/>
-    <hyperlink ref="A37" r:id="rId36"/>
-    <hyperlink ref="A38" r:id="rId37"/>
-    <hyperlink ref="A39" r:id="rId38"/>
-    <hyperlink ref="A40" r:id="rId39"/>
-    <hyperlink ref="A41" r:id="rId40"/>
-    <hyperlink ref="A42" r:id="rId41"/>
-    <hyperlink ref="A43" r:id="rId42"/>
-    <hyperlink ref="A44" r:id="rId43"/>
-    <hyperlink ref="A45" r:id="rId44"/>
-    <hyperlink ref="A46" r:id="rId45"/>
-    <hyperlink ref="A47" r:id="rId46"/>
-    <hyperlink ref="A48" r:id="rId47"/>
-    <hyperlink ref="A49" r:id="rId48"/>
-    <hyperlink ref="A50" r:id="rId49"/>
-    <hyperlink ref="A51" r:id="rId50"/>
-    <hyperlink ref="A52" r:id="rId51"/>
-    <hyperlink ref="A53" r:id="rId52"/>
-    <hyperlink ref="A54" r:id="rId53"/>
-    <hyperlink ref="A55" r:id="rId54"/>
-    <hyperlink ref="A56" r:id="rId55"/>
-    <hyperlink ref="A57" r:id="rId56"/>
-    <hyperlink ref="A58" r:id="rId57"/>
-    <hyperlink ref="A59" r:id="rId58"/>
-    <hyperlink ref="A60" r:id="rId59"/>
-    <hyperlink ref="A61" r:id="rId60"/>
-    <hyperlink ref="A62" r:id="rId61"/>
-    <hyperlink ref="A63" r:id="rId62"/>
-    <hyperlink ref="A64" r:id="rId63"/>
-    <hyperlink ref="A65" r:id="rId64"/>
-    <hyperlink ref="A66" r:id="rId65"/>
-    <hyperlink ref="A67" r:id="rId66"/>
-    <hyperlink ref="A68" r:id="rId67"/>
-    <hyperlink ref="A69" r:id="rId68"/>
-    <hyperlink ref="A70" r:id="rId69"/>
-    <hyperlink ref="A71" r:id="rId70"/>
-    <hyperlink ref="A72" r:id="rId71"/>
-    <hyperlink ref="A73" r:id="rId72"/>
-    <hyperlink ref="A74" r:id="rId73"/>
-    <hyperlink ref="A75" r:id="rId74"/>
-    <hyperlink ref="A76" r:id="rId75"/>
-    <hyperlink ref="A77" r:id="rId76"/>
-    <hyperlink ref="A78" r:id="rId77"/>
-    <hyperlink ref="A79" r:id="rId78"/>
-    <hyperlink ref="A80" r:id="rId79"/>
-    <hyperlink ref="A81" r:id="rId80"/>
-    <hyperlink ref="A82" r:id="rId81"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="A58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="A60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="A61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="A62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="A63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="A64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="A65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="A66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="A67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="A68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="A69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="A70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="A71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="A72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="A73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="A74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="A75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="A76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="A77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="A78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="A79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="A80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="A81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="A82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
